--- a/Source.xlsx
+++ b/Source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABRAHAM\Downloads\Hello_layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27881894-8716-4CD5-A277-3BBF01AADD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F47A2-6185-422D-BF6B-E7B897EDE9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9145FF5-9442-4505-8D44-F7EB4141C218}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Category</t>
   </si>
@@ -147,6 +147,36 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>images/Piano.jpg</t>
+  </si>
+  <si>
+    <t>images/A.jpg</t>
+  </si>
+  <si>
+    <t>images/Alat_tulis.jpg</t>
+  </si>
+  <si>
+    <t>images/Gen_Alpha.jpg</t>
+  </si>
+  <si>
+    <t>images/Spiderman.jpg</t>
+  </si>
+  <si>
+    <t>images/Bach.jpg</t>
+  </si>
+  <si>
+    <t>images/Beethoven.jpg</t>
+  </si>
+  <si>
+    <t>images/Liszt.jpg</t>
+  </si>
+  <si>
+    <t>images/Chop.jpg</t>
+  </si>
+  <si>
+    <t>images/Joshua.jpg</t>
   </si>
 </sst>
 </file>
@@ -524,7 +554,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,6 +562,7 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -581,6 +612,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -595,6 +629,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -609,6 +646,9 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -623,6 +663,9 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -637,6 +680,9 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -651,6 +697,9 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -665,6 +714,9 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -679,6 +731,9 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -693,6 +748,9 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -706,6 +764,9 @@
       </c>
       <c r="D12" t="s">
         <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
